--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C2:E5"/>
+  <dimension ref="C2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -448,6 +448,14 @@
           <t>Name</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="inlineStr">
@@ -456,7 +464,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -471,7 +479,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -486,7 +494,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="C2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>82</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>

--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C2:H5"/>
+  <dimension ref="C2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>530</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="3">
@@ -494,11 +494,26 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>tonic</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ether</t>
         </is>
       </c>
     </row>
